--- a/tests/test_files/Inputs_Detailed5.xlsx
+++ b/tests/test_files/Inputs_Detailed5.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EF2AAB-C7A8-40D1-8BF0-ACFD4E04CBD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7A3E4F-CF72-4A95-9F5D-C2C4C74C9105}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11385" tabRatio="868" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="868" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="10" r:id="rId1"/>
@@ -1053,9 +1053,6 @@
     <t>Default folder to store log messages and the excel results, this can be overwritten using the GUI</t>
   </si>
   <si>
-    <t>Include_Convex</t>
-  </si>
-  <si>
     <t>Updated to include ConvexHull calculation</t>
   </si>
   <si>
@@ -1138,6 +1135,9 @@
   </si>
   <si>
     <t>Line 3 Switch In</t>
+  </si>
+  <si>
+    <t>Include_Loci</t>
   </si>
 </sst>
 </file>
@@ -2789,7 +2789,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>168</v>
@@ -2798,12 +2798,12 @@
         <v>44015</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>168</v>
@@ -2812,7 +2812,7 @@
         <v>44030</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2989,7 +2989,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -3118,13 +3118,13 @@
     </row>
     <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="B13" s="35" t="b">
         <v>1</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3362,7 +3362,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="65" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B1" s="65"/>
       <c r="C1" s="61"/>
@@ -8477,7 +8477,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="73" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B1" s="73"/>
       <c r="C1" s="61"/>
@@ -8538,39 +8538,39 @@
         <v>190</v>
       </c>
       <c r="B4" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C4" s="72"/>
       <c r="D4" s="67" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E4" s="69"/>
       <c r="F4" s="67" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G4" s="69"/>
       <c r="H4" s="67" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I4" s="69"/>
       <c r="J4" s="67" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K4" s="69"/>
       <c r="L4" s="67" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M4" s="69"/>
       <c r="N4" s="67" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O4" s="69"/>
       <c r="P4" s="67" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Q4" s="69"/>
       <c r="R4" s="67" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S4" s="69"/>
     </row>
@@ -8579,55 +8579,55 @@
         <v>0</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C5" s="31" t="s">
         <v>166</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E5" s="31" t="s">
         <v>166</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G5" s="31" t="s">
         <v>166</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I5" s="31" t="s">
         <v>166</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K5" s="31" t="s">
         <v>166</v>
       </c>
       <c r="L5" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M5" s="31" t="s">
         <v>166</v>
       </c>
       <c r="N5" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O5" s="31" t="s">
         <v>166</v>
       </c>
       <c r="P5" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q5" s="31" t="s">
         <v>166</v>
       </c>
       <c r="R5" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="S5" s="31" t="s">
         <v>166</v>
@@ -8635,13 +8635,13 @@
     </row>
     <row r="6" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -8662,19 +8662,19 @@
     </row>
     <row r="7" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B7" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>234</v>
-      </c>
       <c r="E7" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
@@ -8693,13 +8693,13 @@
     </row>
     <row r="8" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
@@ -12856,7 +12856,7 @@
         <v>174</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>175</v>
@@ -13620,7 +13620,7 @@
         <v>187</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>189</v>
@@ -13796,12 +13796,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <iab7cdb7554d4997ae876b11632fa575 xmlns="3cada6dc-2705-46ed-bab2-0b2cd6d935ca">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </iab7cdb7554d4997ae876b11632fa575>
+    <TaxCatchAll xmlns="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13957,20 +13959,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <iab7cdb7554d4997ae876b11632fa575 xmlns="3cada6dc-2705-46ed-bab2-0b2cd6d935ca">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </iab7cdb7554d4997ae876b11632fa575>
-    <TaxCatchAll xmlns="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5D7682-109C-47ED-9D9D-D061E76CCAD3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC61AA8-C35E-4598-8617-08B80F018AC2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13994,17 +14002,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC61AA8-C35E-4598-8617-08B80F018AC2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5D7682-109C-47ED-9D9D-D061E76CCAD3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>